--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.17</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -762,25 +862,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1536,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.53</v>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1623,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1761,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1745,14 +1832,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -1761,14 +1970,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -1777,13 +1986,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5020</t>
+          <t>0.3917</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞新经济沪港深混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -864,32 +881,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0599</t>
+          <t>0.5020</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -902,36 +919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -940,36 +957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -978,36 +995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002860</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.26</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1016,6 +1033,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,176 +1327,6 @@
       </c>
       <c r="H2" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2710</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011355</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1346,22 +1401,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3419</t>
+          <t>0.2710</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1374,36 +1429,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1145</t>
+          <t>0.0875</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1412,36 +1467,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0768</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1450,6 +1505,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06066-中信建投证券.xlsx
+++ b/数据整理/stocks/港股/06066-中信建投证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,356 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1022,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3917</t>
+          <t>0.4275</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1060,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -749,74 +1088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深混合</t>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -891,26 +1192,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5020</t>
+          <t>0.3917</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -924,31 +1225,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -962,31 +1263,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞新经济沪港深混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1000,31 +1301,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1089,32 +1390,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0599</t>
+          <t>0.5020</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1127,36 +1428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1165,36 +1466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1203,36 +1504,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002860</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.26</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1241,6 +1542,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1327,176 +1836,6 @@
       </c>
       <c r="H2" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2710</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011355</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1571,22 +1910,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3419</t>
+          <t>0.2710</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1599,36 +1938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1145</t>
+          <t>0.0875</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1637,36 +1976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0768</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1675,6 +2014,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1918,326 +2427,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3903</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005937</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2215</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1743</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005938</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>